--- a/docs/docs_I_made/review_packages_R.xlsx
+++ b/docs/docs_I_made/review_packages_R.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>oncoscanR</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>output</t>
-  </si>
-  <si>
-    <t>résolution</t>
   </si>
   <si>
     <t>arm-level</t>
@@ -58,15 +55,6 @@
   <si>
     <t>perform relative or absolute copy-number analysis
 three copy-number modelization methods</t>
-  </si>
-  <si>
-    <t>plateforme</t>
-  </si>
-  <si>
-    <t>marche sur windows</t>
-  </si>
-  <si>
-    <t>ne marche pas sur windows</t>
   </si>
   <si>
     <t xml:space="preserve">a JSON in command line , an object on R:
@@ -97,6 +85,27 @@
   <si>
     <t xml:space="preserve">Affymetrix SNP6.0 and cytoScanHD probeset.txt, cychp.txt, and cnchp.txt files exported from ChAS or Affymetrix Power Tools.
  rCGH also supports custom arrays, provided data complies with the expected format. </t>
+  </si>
+  <si>
+    <t>resolution</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>works on windows</t>
+  </si>
+  <si>
+    <t>doesn't work on windows</t>
+  </si>
+  <si>
+    <t>analyzing and interactively visualizing genomic profiles
+ generated through aCGH arrays.
+All the steps required for individual genomic profiles analysis:
+reading files , 
+profiles segmentation, 
+gene annotations
+Also, it provides some visualization functions for individual profile inerpretation</t>
   </si>
 </sst>
 </file>
@@ -420,7 +429,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="315" x14ac:dyDescent="0.25">
@@ -453,16 +462,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -470,24 +479,27 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/docs/docs_I_made/review_packages_R.xlsx
+++ b/docs/docs_I_made/review_packages_R.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="115">
   <si>
     <t>oncoscanR</t>
   </si>
@@ -53,11 +53,296 @@
 Score Tdplus</t>
   </si>
   <si>
+    <t>text exported file from ChAS, only</t>
+  </si>
+  <si>
+    <t>CEL files, only</t>
+  </si>
+  <si>
+    <t>resolution</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>works on windows</t>
+  </si>
+  <si>
+    <t>doesn't work on windows</t>
+  </si>
+  <si>
+    <t>analyzing and interactively visualizing genomic profiles
+ generated through aCGH arrays.
+All the steps required for individual genomic profiles analysis:
+reading files , 
+profiles segmentation, 
+gene annotations
+Also, it provides some visualization functions for individual profile inerpretation</t>
+  </si>
+  <si>
+    <t>entrezid</t>
+  </si>
+  <si>
+    <t>chr</t>
+  </si>
+  <si>
+    <t>chrStart</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>strand</t>
+  </si>
+  <si>
+    <t>Log2Ratio</t>
+  </si>
+  <si>
+    <t>num.mark</t>
+  </si>
+  <si>
+    <t>segNum</t>
+  </si>
+  <si>
+    <t>segLength(kb)</t>
+  </si>
+  <si>
+    <t>estimCopy</t>
+  </si>
+  <si>
+    <t>relativeLog</t>
+  </si>
+  <si>
+    <t>genomeStart</t>
+  </si>
+  <si>
+    <t>A1BG-AS1</t>
+  </si>
+  <si>
+    <t>  symbol</t>
+  </si>
+  <si>
+    <t>                      fullName cytoband</t>
+  </si>
+  <si>
+    <t>  chrEnd</t>
+  </si>
+  <si>
+    <t>       1</t>
+  </si>
+  <si>
+    <t>    A1BG</t>
+  </si>
+  <si>
+    <t>        alpha-1-B_glycoprotein_19q13.43</t>
+  </si>
+  <si>
+    <t> 19</t>
+  </si>
+  <si>
+    <t>     -</t>
+  </si>
+  <si>
+    <t>  0.80185</t>
+  </si>
+  <si>
+    <t>     231</t>
+  </si>
+  <si>
+    <t>    21</t>
+  </si>
+  <si>
+    <t>     58810.89</t>
+  </si>
+  <si>
+    <t>        4</t>
+  </si>
+  <si>
+    <t>          0</t>
+  </si>
+  <si>
+    <t> 2718302494</t>
+  </si>
+  <si>
+    <t>  503538</t>
+  </si>
+  <si>
+    <t>          A1BG antisense_RNA_1_19q13.43</t>
+  </si>
+  <si>
+    <t> 7433</t>
+  </si>
+  <si>
+    <t>     +</t>
+  </si>
+  <si>
+    <t> 2718303439</t>
+  </si>
+  <si>
+    <t>   29974</t>
+  </si>
+  <si>
+    <t>    A1CF</t>
+  </si>
+  <si>
+    <t> APOBEC1_complementation_facto_10q11.23</t>
+  </si>
+  <si>
+    <t> 10</t>
+  </si>
+  <si>
+    <t>  0.94135</t>
+  </si>
+  <si>
+    <t>     751</t>
+  </si>
+  <si>
+    <t>    10</t>
+  </si>
+  <si>
+    <t>    135239.66</t>
+  </si>
+  <si>
+    <t> 1732932312</t>
+  </si>
+  <si>
+    <t>tableau 1</t>
+  </si>
+  <si>
+    <t>tableau 1 ; tableau 2</t>
+  </si>
+  <si>
+    <t>         ID</t>
+  </si>
+  <si>
+    <t>chrom</t>
+  </si>
+  <si>
+    <t>loc.start</t>
+  </si>
+  <si>
+    <t>  loc.end</t>
+  </si>
+  <si>
+    <t>seg.mean</t>
+  </si>
+  <si>
+    <t>seg.med</t>
+  </si>
+  <si>
+    <t>probes.Sd</t>
+  </si>
+  <si>
+    <t>CSc.Example</t>
+  </si>
+  <si>
+    <t>    1</t>
+  </si>
+  <si>
+    <t>   882803</t>
+  </si>
+  <si>
+    <t>    1209</t>
+  </si>
+  <si>
+    <t>  0.0087</t>
+  </si>
+  <si>
+    <t>-0.0504</t>
+  </si>
+  <si>
+    <t>0.9799602</t>
+  </si>
+  <si>
+    <t>        2</t>
+  </si>
+  <si>
+    <t>    2</t>
+  </si>
+  <si>
+    <t>    15703</t>
+  </si>
+  <si>
+    <t>    1317</t>
+  </si>
+  <si>
+    <t>  0.8874</t>
+  </si>
+  <si>
+    <t> 0.8791</t>
+  </si>
+  <si>
+    <t>0.9901649</t>
+  </si>
+  <si>
+    <t>    3</t>
+  </si>
+  <si>
+    <t>    62614</t>
+  </si>
+  <si>
+    <t>    1100</t>
+  </si>
+  <si>
+    <t>  0.8791</t>
+  </si>
+  <si>
+    <t>0.9786349</t>
+  </si>
+  <si>
+    <t>    4</t>
+  </si>
+  <si>
+    <t>    46691</t>
+  </si>
+  <si>
+    <t>    1042</t>
+  </si>
+  <si>
+    <t> -0.0075</t>
+  </si>
+  <si>
+    <t>0.9883702</t>
+  </si>
+  <si>
+    <t>    5</t>
+  </si>
+  <si>
+    <t>   113577</t>
+  </si>
+  <si>
+    <t>     986</t>
+  </si>
+  <si>
+    <t>  0.8502</t>
+  </si>
+  <si>
+    <t>0.9907562</t>
+  </si>
+  <si>
+    <t>    6</t>
+  </si>
+  <si>
+    <t>   184719</t>
+  </si>
+  <si>
+    <t>    1103</t>
+  </si>
+  <si>
+    <t> -0.0105</t>
+  </si>
+  <si>
+    <t>1.0052332</t>
+  </si>
+  <si>
+    <t>tableau 2</t>
+  </si>
+  <si>
     <t>perform relative or absolute copy-number analysis
 three copy-number modelization methods</t>
   </si>
   <si>
-    <t xml:space="preserve">a JSON in command line , an object on R:
+    <t>a JSON in command line , an object on R:
 {
   "armlevel": {
     "AMP": [],
@@ -73,39 +358,45 @@
   "gender": "F",
   "file": "2-ADREC.RC.OSCHP.segments_FULL_LOCATION.txt"
 }
-Both contain the same information: arm-level alteration, LST, LOH and TDplus scores.
+Both contain the same information: arm-level alteration, LST, LOH and TDplus scores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ChrNum</t>
+  </si>
+  <si>
+    <t>present in cnchp files</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> present in filename.segments.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> present in cnchp files</t>
+  </si>
+  <si>
+    <t>ProbeName</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ChrStart</t>
+  </si>
+  <si>
+    <t>Character strings. Typicaly the probe ids.</t>
+  </si>
+  <si>
+    <t>numeric. The chromosome numbers.</t>
+  </si>
+  <si>
+    <t>numeric. The chromosomal probe locations.</t>
+  </si>
+  <si>
+    <t>numeric. The corresponding Log2Ratios.</t>
+  </si>
+  <si>
+    <t>tableau3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affymetrix SNP6.0 and cytoScanHD files: probeset.txt, cychp.txt, and cnchp.txt . They are exported from ChAS or Affymetrix Power Tools.
+rCGH also supports custom arrays, but we need data from a cnchp file to build it. CF. tableau 3
 </t>
-  </si>
-  <si>
-    <t>text exported file from ChAS, only</t>
-  </si>
-  <si>
-    <t>CEL files, only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Affymetrix SNP6.0 and cytoScanHD probeset.txt, cychp.txt, and cnchp.txt files exported from ChAS or Affymetrix Power Tools.
- rCGH also supports custom arrays, provided data complies with the expected format. </t>
-  </si>
-  <si>
-    <t>resolution</t>
-  </si>
-  <si>
-    <t>platform</t>
-  </si>
-  <si>
-    <t>works on windows</t>
-  </si>
-  <si>
-    <t>doesn't work on windows</t>
-  </si>
-  <si>
-    <t>analyzing and interactively visualizing genomic profiles
- generated through aCGH arrays.
-All the steps required for individual genomic profiles analysis:
-reading files , 
-profiles segmentation, 
-gene annotations
-Also, it provides some visualization functions for individual profile inerpretation</t>
   </si>
 </sst>
 </file>
@@ -121,15 +412,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -137,14 +446,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -161,6 +517,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="C35:Q38" totalsRowShown="0">
+  <autoFilter ref="C35:Q38"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="entrezid"/>
+    <tableColumn id="2" name="  symbol"/>
+    <tableColumn id="3" name="                      fullName cytoband"/>
+    <tableColumn id="4" name="chr"/>
+    <tableColumn id="5" name="chrStart"/>
+    <tableColumn id="6" name="  chrEnd"/>
+    <tableColumn id="7" name="width"/>
+    <tableColumn id="8" name="strand"/>
+    <tableColumn id="9" name="Log2Ratio"/>
+    <tableColumn id="10" name="num.mark"/>
+    <tableColumn id="11" name="segNum"/>
+    <tableColumn id="12" name="segLength(kb)"/>
+    <tableColumn id="13" name="estimCopy"/>
+    <tableColumn id="14" name="relativeLog"/>
+    <tableColumn id="15" name="genomeStart"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="C42:K48" totalsRowShown="0">
+  <autoFilter ref="C42:K48"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="         ID"/>
+    <tableColumn id="2" name="chrom"/>
+    <tableColumn id="3" name="loc.start"/>
+    <tableColumn id="4" name="  loc.end"/>
+    <tableColumn id="5" name="num.mark"/>
+    <tableColumn id="6" name="seg.mean"/>
+    <tableColumn id="7" name="seg.med"/>
+    <tableColumn id="8" name="probes.Sd"/>
+    <tableColumn id="9" name="estimCopy"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="C52:F54" totalsRowShown="0">
+  <autoFilter ref="C52:F54"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="ProbeName"/>
+    <tableColumn id="2" name=" ChrNum"/>
+    <tableColumn id="3" name=" ChrStart"/>
+    <tableColumn id="4" name="Log2Ratio"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -426,84 +837,1649 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:Q137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="56.140625" customWidth="1"/>
-    <col min="3" max="3" width="71.140625" customWidth="1"/>
-    <col min="4" max="4" width="72.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="7"/>
+    <col min="2" max="2" width="56.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="60.85546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="72.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="315" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C4" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="G35" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="H35" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N35" t="s">
+        <v>23</v>
+      </c>
+      <c r="O35" t="s">
+        <v>24</v>
+      </c>
+      <c r="P35" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="4">
+        <v>58858172</v>
+      </c>
+      <c r="H36">
+        <v>58874214</v>
+      </c>
+      <c r="I36">
+        <v>16043</v>
+      </c>
+      <c r="J36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K36" t="s">
+        <v>36</v>
+      </c>
+      <c r="L36" t="s">
+        <v>37</v>
+      </c>
+      <c r="M36" t="s">
+        <v>38</v>
+      </c>
+      <c r="N36" t="s">
+        <v>39</v>
+      </c>
+      <c r="O36" t="s">
+        <v>40</v>
+      </c>
+      <c r="P36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="4">
+        <v>58859117</v>
+      </c>
+      <c r="H37">
+        <v>58866549</v>
+      </c>
+      <c r="I37" t="s">
+        <v>45</v>
+      </c>
+      <c r="J37" t="s">
+        <v>46</v>
+      </c>
+      <c r="K37" t="s">
+        <v>36</v>
+      </c>
+      <c r="L37" t="s">
+        <v>37</v>
+      </c>
+      <c r="M37" t="s">
+        <v>38</v>
+      </c>
+      <c r="N37" t="s">
+        <v>39</v>
+      </c>
+      <c r="O37" t="s">
+        <v>40</v>
+      </c>
+      <c r="P37" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" s="4">
+        <v>52559169</v>
+      </c>
+      <c r="H38">
+        <v>52645435</v>
+      </c>
+      <c r="I38">
+        <v>86267</v>
+      </c>
+      <c r="J38" t="s">
+        <v>35</v>
+      </c>
+      <c r="K38" t="s">
+        <v>52</v>
+      </c>
+      <c r="L38" t="s">
+        <v>53</v>
+      </c>
+      <c r="M38" t="s">
+        <v>54</v>
+      </c>
+      <c r="N38" t="s">
+        <v>55</v>
+      </c>
+      <c r="O38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" t="s">
+        <v>63</v>
+      </c>
+      <c r="I42" t="s">
+        <v>64</v>
+      </c>
+      <c r="J42" t="s">
+        <v>65</v>
+      </c>
+      <c r="K42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" s="4">
+        <v>249116709</v>
+      </c>
+      <c r="G43" t="s">
+        <v>69</v>
+      </c>
+      <c r="H43" t="s">
+        <v>70</v>
+      </c>
+      <c r="I43" t="s">
+        <v>71</v>
+      </c>
+      <c r="J43" t="s">
+        <v>72</v>
+      </c>
+      <c r="K43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F44" s="4">
+        <v>242497851</v>
+      </c>
+      <c r="G44" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44" t="s">
+        <v>77</v>
+      </c>
+      <c r="I44" t="s">
+        <v>78</v>
+      </c>
+      <c r="J44" t="s">
+        <v>79</v>
+      </c>
+      <c r="K44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" s="4">
+        <v>197683938</v>
+      </c>
+      <c r="G45" t="s">
+        <v>82</v>
+      </c>
+      <c r="H45" t="s">
+        <v>83</v>
+      </c>
+      <c r="I45" t="s">
+        <v>78</v>
+      </c>
+      <c r="J45" t="s">
+        <v>84</v>
+      </c>
+      <c r="K45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" s="4">
+        <v>190921709</v>
+      </c>
+      <c r="G46" t="s">
+        <v>87</v>
+      </c>
+      <c r="H46" t="s">
+        <v>88</v>
+      </c>
+      <c r="I46" t="s">
+        <v>71</v>
+      </c>
+      <c r="J46" t="s">
+        <v>89</v>
+      </c>
+      <c r="K46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" s="4">
+        <v>180579439</v>
+      </c>
+      <c r="G47" t="s">
+        <v>92</v>
+      </c>
+      <c r="H47" t="s">
+        <v>93</v>
+      </c>
+      <c r="I47" t="s">
+        <v>78</v>
+      </c>
+      <c r="J47" t="s">
+        <v>94</v>
+      </c>
+      <c r="K47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48" s="4">
+        <v>170849100</v>
+      </c>
+      <c r="G48" t="s">
+        <v>97</v>
+      </c>
+      <c r="H48" t="s">
+        <v>98</v>
+      </c>
+      <c r="I48" t="s">
+        <v>71</v>
+      </c>
+      <c r="J48" t="s">
+        <v>99</v>
+      </c>
+      <c r="K48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
+      <c r="B117" s="12"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="4"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="4"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="4"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="4"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="4"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="4"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="4"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="4"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="4"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="4"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="4"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="4"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="4"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="4"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="4"/>
+      <c r="B133" s="12"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="4"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="4"/>
+      <c r="B135" s="12"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>